--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_548.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_548.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32911-d79344-Reviews-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Pomona.h996225.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_548.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,347 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r534424946-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>32911</t>
+  </si>
+  <si>
+    <t>79344</t>
+  </si>
+  <si>
+    <t>534424946</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>If Tom  Bodet , would turn the light OFF, things would be.,.....</t>
+  </si>
+  <si>
+    <t>So much better.. I stayed 1 week there in Oct.2017,  and unless I read the reviews about this place being "Great, Excellent Service , Secured parking etc.'  It had to be guests who knew Jennifer or been related to her.  My experience, just this month , was  nothing like those reviewers .....I  am looking for permanent residence,  so until a place is found, Motel life is evident..But a major differences in Motels like this one is despicable. I was expecting a small refrigerator and microwave , good water pressure ,clean bedding ,WiFi that was free, etc.but not one of these items were available. Also the bathrooms toilet seat had a major crack in it and the exhaust fan didn't work . The parking during the day was great, but about 9pm was full and numerous people would drive in and park and visit guests all night long. The vending machines were too costly and bad choice's of products. The laundry room was only open til 11 pm.So travelers that need clean clothes in the morning were put out.  So if " Tom Bodet would Turn The Light Off" this Motel would save extra money to provide these basic amenities to the valued Guests.........MoreShow less</t>
+  </si>
+  <si>
+    <t>So much better.. I stayed 1 week there in Oct.2017,  and unless I read the reviews about this place being "Great, Excellent Service , Secured parking etc.'  It had to be guests who knew Jennifer or been related to her.  My experience, just this month , was  nothing like those reviewers .....I  am looking for permanent residence,  so until a place is found, Motel life is evident..But a major differences in Motels like this one is despicable. I was expecting a small refrigerator and microwave , good water pressure ,clean bedding ,WiFi that was free, etc.but not one of these items were available. Also the bathrooms toilet seat had a major crack in it and the exhaust fan didn't work . The parking during the day was great, but about 9pm was full and numerous people would drive in and park and visit guests all night long. The vending machines were too costly and bad choice's of products. The laundry room was only open til 11 pm.So travelers that need clean clothes in the morning were put out.  So if " Tom Bodet would Turn The Light Off" this Motel would save extra money to provide these basic amenities to the valued Guests.........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r472513203-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>472513203</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Best experience I've had with a Motel 6</t>
+  </si>
+  <si>
+    <t>My wife, sister, niece &amp; myself took a late trip from Arizona to Pomona, CA for Disneyland the next day. I made a reservation through Booking.com for this Motel and when I spoke to the front desk lady (Jennifer) the reservation hadn't shown through their system. Jennifer told me it was ok as she could see from the booking number we had that we did have a reservation. She gave us a room for the night and gave us a rate that was $10 cheaper than the booking.com rate! Impressive! The room was clean, spacious and bright...we were impressed, especially for it being a Motel 6! Would definitely stay here again if we are in this area, and Jennifer was awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My wife, sister, niece &amp; myself took a late trip from Arizona to Pomona, CA for Disneyland the next day. I made a reservation through Booking.com for this Motel and when I spoke to the front desk lady (Jennifer) the reservation hadn't shown through their system. Jennifer told me it was ok as she could see from the booking number we had that we did have a reservation. She gave us a room for the night and gave us a rate that was $10 cheaper than the booking.com rate! Impressive! The room was clean, spacious and bright...we were impressed, especially for it being a Motel 6! Would definitely stay here again if we are in this area, and Jennifer was awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r461045025-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>461045025</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Its ok</t>
+  </si>
+  <si>
+    <t>It is OK not a bad place to visit on occasion could be better but OK price and site parking is ok not crowded and a lot of spacevery comfortable with everyone and nice to see the view no complaint its anice</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r424556284-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>424556284</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Never again for motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A regular tourist in California and have used this chain for a long time. Although some are good the majority aren't and give them all a bad name. I stayed in Pomona before but this time there was black hairs in the bed  plaster coming off the wall the carpet was black and the place didn't feel safe The price was way too high and it has causede to avoid this name altogether.   </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r381646328-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>381646328</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>I'll never stay at Motel 6 again</t>
+  </si>
+  <si>
+    <t>Was a quick trip, a family member passed away and we came for the funeral. Checked in (the attendant was rude) and off to the wake (noticed a cigarette odor in the room). After the viewing we needed to iron some clothes, no iron or ironing board in room. Asked the front desk if there was iron he said yes but no ironing board an ask for my credit card to hold for it...really what do we iron on the attendant said the bathroom sink with a straight face!! After the funeral are keys didn't work, apparently they thought we checked out, luckily our room wasn't given away.We will Never stay here Nor another Motel 6 ever again, this place SUCKED!!!!!!!Cheap hotels should be ashamed of itself for having this hotel on it's sight!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Was a quick trip, a family member passed away and we came for the funeral. Checked in (the attendant was rude) and off to the wake (noticed a cigarette odor in the room). After the viewing we needed to iron some clothes, no iron or ironing board in room. Asked the front desk if there was iron he said yes but no ironing board an ask for my credit card to hold for it...really what do we iron on the attendant said the bathroom sink with a straight face!! After the funeral are keys didn't work, apparently they thought we checked out, luckily our room wasn't given away.We will Never stay here Nor another Motel 6 ever again, this place SUCKED!!!!!!!Cheap hotels should be ashamed of itself for having this hotel on it's sight!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r358321994-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>358321994</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Slightly above my expectation. Underline slightly.</t>
+  </si>
+  <si>
+    <t>The outward clean appearance of the motel caused me to have a change of heart in deciding to try this out. Nobody hanging out over balconies or people smoking out, the last minute check in was quick and smooth with no hassles, joshephine did great with info as well. The room smelled good and no carpet(yes!) upgraded furnishings impressed me, all linoleum floor which was very clean. Overall the room was very clean, sheets and blankets very clean whiched helped me and my wife sleep with a good consience. The price matches a three star motel. The place felt secure and safe for a family on a budget. This motel 6 is good, other motel 6 are o.k. , i would come back if i have to budget. expect one towel and one super cheap small bar of soap, thats it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The outward clean appearance of the motel caused me to have a change of heart in deciding to try this out. Nobody hanging out over balconies or people smoking out, the last minute check in was quick and smooth with no hassles, joshephine did great with info as well. The room smelled good and no carpet(yes!) upgraded furnishings impressed me, all linoleum floor which was very clean. Overall the room was very clean, sheets and blankets very clean whiched helped me and my wife sleep with a good consience. The price matches a three star motel. The place felt secure and safe for a family on a budget. This motel 6 is good, other motel 6 are o.k. , i would come back if i have to budget. expect one towel and one super cheap small bar of soap, thats it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r320753286-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>320753286</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>It was simple to check in and check out. The room was simple and clean. Although I would have liked there to be a stronger fan in the restroom, there was not. I liked the fact that it was close to downtown Pomona where the Glass House is.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r293911977-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>293911977</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Motel 6 with ice cold air conditioning!</t>
+  </si>
+  <si>
+    <t>We looked for a dog-friendly hotel in the Diamond Bar area but couldn't find one close that wasn't over $150 a night plus a pet fee of up to $75.  We decided that we would only be using the room for sleep since we would be visiting my parent's home during the day.  We were glad we did.  My brother and his family and my niece and her husband stayed at my parents and we stayed at the Motel 6.  We had ice cold air conditioning and a comfortable bed and we were able to bring our dog with us. Parking was easy. The room was just right for what we needed.
+My only complaint is that I brought my own sheets and left a GIANT NOTE on the bed that said:  "PLEASE DO NOT CHANGE THESE SHEETS.  I BROUGHT THEM FROM HOME."  Well, it was the last time I saw them.  I contacted the front desk who said they'd pass it on to housekeeping.  I heard nothing.  When I checked out, the front desk lady said she didn't know anything about it.  She took my name and phone number, but I know I won't hear back from anyone.  Unless they couldn't read, it was impossible not to see the big note.
+Overall, I'd stay there again.  I won't be bringing sheets.  I think this Motel 6 was just right for what we needed.  There is a Starbucks a little...We looked for a dog-friendly hotel in the Diamond Bar area but couldn't find one close that wasn't over $150 a night plus a pet fee of up to $75.  We decided that we would only be using the room for sleep since we would be visiting my parent's home during the day.  We were glad we did.  My brother and his family and my niece and her husband stayed at my parents and we stayed at the Motel 6.  We had ice cold air conditioning and a comfortable bed and we were able to bring our dog with us. Parking was easy. The room was just right for what we needed.My only complaint is that I brought my own sheets and left a GIANT NOTE on the bed that said:  "PLEASE DO NOT CHANGE THESE SHEETS.  I BROUGHT THEM FROM HOME."  Well, it was the last time I saw them.  I contacted the front desk who said they'd pass it on to housekeeping.  I heard nothing.  When I checked out, the front desk lady said she didn't know anything about it.  She took my name and phone number, but I know I won't hear back from anyone.  Unless they couldn't read, it was impossible not to see the big note.Overall, I'd stay there again.  I won't be bringing sheets.  I think this Motel 6 was just right for what we needed.  There is a Starbucks a little over 2 miles away.  There is an In-n-Out Burger or Wing Street restaurant down the road.  In fact, there are several restaurants close-by.  I liked that we were right next to the freeway which took me only 9 minutes to get to my parent's home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We looked for a dog-friendly hotel in the Diamond Bar area but couldn't find one close that wasn't over $150 a night plus a pet fee of up to $75.  We decided that we would only be using the room for sleep since we would be visiting my parent's home during the day.  We were glad we did.  My brother and his family and my niece and her husband stayed at my parents and we stayed at the Motel 6.  We had ice cold air conditioning and a comfortable bed and we were able to bring our dog with us. Parking was easy. The room was just right for what we needed.
+My only complaint is that I brought my own sheets and left a GIANT NOTE on the bed that said:  "PLEASE DO NOT CHANGE THESE SHEETS.  I BROUGHT THEM FROM HOME."  Well, it was the last time I saw them.  I contacted the front desk who said they'd pass it on to housekeeping.  I heard nothing.  When I checked out, the front desk lady said she didn't know anything about it.  She took my name and phone number, but I know I won't hear back from anyone.  Unless they couldn't read, it was impossible not to see the big note.
+Overall, I'd stay there again.  I won't be bringing sheets.  I think this Motel 6 was just right for what we needed.  There is a Starbucks a little...We looked for a dog-friendly hotel in the Diamond Bar area but couldn't find one close that wasn't over $150 a night plus a pet fee of up to $75.  We decided that we would only be using the room for sleep since we would be visiting my parent's home during the day.  We were glad we did.  My brother and his family and my niece and her husband stayed at my parents and we stayed at the Motel 6.  We had ice cold air conditioning and a comfortable bed and we were able to bring our dog with us. Parking was easy. The room was just right for what we needed.My only complaint is that I brought my own sheets and left a GIANT NOTE on the bed that said:  "PLEASE DO NOT CHANGE THESE SHEETS.  I BROUGHT THEM FROM HOME."  Well, it was the last time I saw them.  I contacted the front desk who said they'd pass it on to housekeeping.  I heard nothing.  When I checked out, the front desk lady said she didn't know anything about it.  She took my name and phone number, but I know I won't hear back from anyone.  Unless they couldn't read, it was impossible not to see the big note.Overall, I'd stay there again.  I won't be bringing sheets.  I think this Motel 6 was just right for what we needed.  There is a Starbucks a little over 2 miles away.  There is an In-n-Out Burger or Wing Street restaurant down the road.  In fact, there are several restaurants close-by.  I liked that we were right next to the freeway which took me only 9 minutes to get to my parent's home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r288310767-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>288310767</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Bring your own towels</t>
+  </si>
+  <si>
+    <t>Only one dirty looking hand towel and wash cloth was provided.  When asked for towels so we could shower, housekeeping said there were none available.  Will never stay there again.  We had to go out without showers.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles - Pomona, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Only one dirty looking hand towel and wash cloth was provided.  When asked for towels so we could shower, housekeeping said there were none available.  Will never stay there again.  We had to go out without showers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r240628399-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>240628399</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Cheap in every way</t>
+  </si>
+  <si>
+    <t>What a disappointment.  Very depressed area.  Hotel is permanent home for many people with dogs and a lot of time on their hands.  On arrival we had no shower curtain and obvious smoking in non smoking room.  Cigarette burns in bedspread and filthy floor which turned my socks black.  Nice people but stay far away.  MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles - Pomona, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>What a disappointment.  Very depressed area.  Hotel is permanent home for many people with dogs and a lot of time on their hands.  On arrival we had no shower curtain and obvious smoking in non smoking room.  Cigarette burns in bedspread and filthy floor which turned my socks black.  Nice people but stay far away.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r211731390-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>211731390</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly Decent</t>
+  </si>
+  <si>
+    <t>We arrived at 1AM and even though there is a sign that says C/I thru a window outside the lobby at night, the front desk agent still allowed us in. She was not rude nor is she friendly, however she cracked a smile when I stated that we are all starving but also can't wait to hit the bed. The room had 2 queen beds and was decent looking and room temperature was chilly but I like it so no complains there. There is a pool that my 7 years old daughter hanged-out Saturday afternoon, however, I noticed that our room was not as cold, I would even say almost warm that afternoon. We called front desk about it and maintenance worked on it 10 minutes after we called and concern resolved right there and then. Only complain that we have is the hotel policy of No Smoking which they posted at the bottom of an overturned ashtray in each room. It is like saying, do not smoke but just in case you do...here is the ashtray! Our neighbors next door not only smoked in room, but also kept us up the whole night from constant knocking on door. I guess, the front desk did not know that the room had 7 guests and only issued limited amount of keycard.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We arrived at 1AM and even though there is a sign that says C/I thru a window outside the lobby at night, the front desk agent still allowed us in. She was not rude nor is she friendly, however she cracked a smile when I stated that we are all starving but also can't wait to hit the bed. The room had 2 queen beds and was decent looking and room temperature was chilly but I like it so no complains there. There is a pool that my 7 years old daughter hanged-out Saturday afternoon, however, I noticed that our room was not as cold, I would even say almost warm that afternoon. We called front desk about it and maintenance worked on it 10 minutes after we called and concern resolved right there and then. Only complain that we have is the hotel policy of No Smoking which they posted at the bottom of an overturned ashtray in each room. It is like saying, do not smoke but just in case you do...here is the ashtray! Our neighbors next door not only smoked in room, but also kept us up the whole night from constant knocking on door. I guess, the front desk did not know that the room had 7 guests and only issued limited amount of keycard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r196125105-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>196125105</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Institutional lock-up charm...</t>
+  </si>
+  <si>
+    <t>Pet friendly but also attracts people who have not won lottery.  It is cheap but there is no microwave, no fridge, etc...  The room is maybe 9 x 9 and has a hose-down fashion going on in the washroom area.   The Manger/check-in staff greet you behind a plexiglass cage sorta reminiscent  of check cashing scenarios.Last Motel 6 for me.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r129706311-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>129706311</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Surprisingly good just above average.</t>
+  </si>
+  <si>
+    <t>For a motel 6 i was surprised about the conditions of the room and the good experience. Linens were crispy and smelled fine, restroom was spotless and ac was quiet. Tv was a bit roughed up but i guess its a small deal. I was way in the back corner where it was quiet all night. Would def come here again for the good service i got at night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r122412365-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>122412365</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>cheap and easy</t>
+  </si>
+  <si>
+    <t>Stayed here several times when driving from So. Arizona to SF Bay area. The location is convenient, just off the freeway and close to several fast food options. But hey, it is a Motel 6. Clean? Eh. Quiet? Eh. But it works for a cheap place to crash.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r13487881-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>13487881</t>
+  </si>
+  <si>
+    <t>02/12/2008</t>
+  </si>
+  <si>
+    <t>Good compared to most reviews</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for Winternationals. Room was clean, Staff was very helpful, providing bus information and such.The young lady that was at the front desk when we left on Monday morning was VERY helpful. She called the cab company to find out if the cab we had called for the night before was on the way and when there was a problem she called many other campanys to help get us to the airport on time. We were a little intimidated about the location, But all in all we just were looking for a clean and comfortable place to stay while at the races.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r1153973-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
+  </si>
+  <si>
+    <t>1153973</t>
+  </si>
+  <si>
+    <t>07/29/2003</t>
+  </si>
+  <si>
+    <t>Motel Hell</t>
+  </si>
+  <si>
+    <t>Decided to take the wife and kids on a little family trip to raging waters a few weeks ago.  We only live about two hours from the park but a friend who lives about 200mi away was also planning on going. We decided to say at the motel 6 in Pomona, that way the kids could swim during the day before going to the park.. 
+We called and made reservation confirming that the motel had a pool so the kids could play together.. We met up with our friends and decided to go out for lunch, when we got back we found the pool was inoperable since a day before we made the reservation..
+After contemplating on what to do we then asked for our money back to go to another motel at that time we didn?t care if it was going to be another motel 6 we just wanted a place with a pool because all our kid were able to do is watch TV, which they could of done at home.. The manager responded that we had been checked in more then 30 min and its policy to deny us a refund. We called motel 6?s toll free number but they didn?t offer us a solution what so ever. Cash was paid for the room so we couldn?t do a chargeback on a credit card, we were pretty much forced to stay or have financial problems at the...Decided to take the wife and kids on a little family trip to raging waters a few weeks ago.  We only live about two hours from the park but a friend who lives about 200mi away was also planning on going. We decided to say at the motel 6 in Pomona, that way the kids could swim during the day before going to the park..  We called and made reservation confirming that the motel had a pool so the kids could play together.. We met up with our friends and decided to go out for lunch, when we got back we found the pool was inoperable since a day before we made the reservation.. After contemplating on what to do we then asked for our money back to go to another motel at that time we didn?t care if it was going to be another motel 6 we just wanted a place with a pool because all our kid were able to do is watch TV, which they could of done at home.. The manager responded that we had been checked in more then 30 min and its policy to deny us a refund. We called motel 6?s toll free number but they didn?t offer us a solution what so ever. Cash was paid for the room so we couldn?t do a chargeback on a credit card, we were pretty much forced to stay or have financial problems at the park the next day..  As for the area this motel has low life people renting by the month.. cops showed up at one room looking for someone, the showers faucet ran all night, the sheets looked dirty we did sleep above the covers, there was what seemed to be blood spotted all over a wall. Carpet was nasty, and my buddy woke up with a cock roach in his bed.. I hope no one ever stays in a motel 6 again I say everyone should turn the light off for them?Plain and simply boycott motel 6 it is really a crack hotel in my eyes?MoreShow less</t>
+  </si>
+  <si>
+    <t>Decided to take the wife and kids on a little family trip to raging waters a few weeks ago.  We only live about two hours from the park but a friend who lives about 200mi away was also planning on going. We decided to say at the motel 6 in Pomona, that way the kids could swim during the day before going to the park.. 
+We called and made reservation confirming that the motel had a pool so the kids could play together.. We met up with our friends and decided to go out for lunch, when we got back we found the pool was inoperable since a day before we made the reservation..
+After contemplating on what to do we then asked for our money back to go to another motel at that time we didn?t care if it was going to be another motel 6 we just wanted a place with a pool because all our kid were able to do is watch TV, which they could of done at home.. The manager responded that we had been checked in more then 30 min and its policy to deny us a refund. We called motel 6?s toll free number but they didn?t offer us a solution what so ever. Cash was paid for the room so we couldn?t do a chargeback on a credit card, we were pretty much forced to stay or have financial problems at the...Decided to take the wife and kids on a little family trip to raging waters a few weeks ago.  We only live about two hours from the park but a friend who lives about 200mi away was also planning on going. We decided to say at the motel 6 in Pomona, that way the kids could swim during the day before going to the park..  We called and made reservation confirming that the motel had a pool so the kids could play together.. We met up with our friends and decided to go out for lunch, when we got back we found the pool was inoperable since a day before we made the reservation.. After contemplating on what to do we then asked for our money back to go to another motel at that time we didn?t care if it was going to be another motel 6 we just wanted a place with a pool because all our kid were able to do is watch TV, which they could of done at home.. The manager responded that we had been checked in more then 30 min and its policy to deny us a refund. We called motel 6?s toll free number but they didn?t offer us a solution what so ever. Cash was paid for the room so we couldn?t do a chargeback on a credit card, we were pretty much forced to stay or have financial problems at the park the next day..  As for the area this motel has low life people renting by the month.. cops showed up at one room looking for someone, the showers faucet ran all night, the sheets looked dirty we did sleep above the covers, there was what seemed to be blood spotted all over a wall. Carpet was nasty, and my buddy woke up with a cock roach in his bed.. I hope no one ever stays in a motel 6 again I say everyone should turn the light off for them?Plain and simply boycott motel 6 it is really a crack hotel in my eyes?More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +989,996 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5918</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_548.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>mark h</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>So much better.. I stayed 1 week there in Oct.2017,  and unless I read the reviews about this place being "Great, Excellent Service , Secured parking etc.'  It had to be guests who knew Jennifer or been related to her.  My experience, just this month , was  nothing like those reviewers .....I  am looking for permanent residence,  so until a place is found, Motel life is evident..But a major differences in Motels like this one is despicable. I was expecting a small refrigerator and microwave , good water pressure ,clean bedding ,WiFi that was free, etc.but not one of these items were available. Also the bathrooms toilet seat had a major crack in it and the exhaust fan didn't work . The parking during the day was great, but about 9pm was full and numerous people would drive in and park and visit guests all night long. The vending machines were too costly and bad choice's of products. The laundry room was only open til 11 pm.So travelers that need clean clothes in the morning were put out.  So if " Tom Bodet would Turn The Light Off" this Motel would save extra money to provide these basic amenities to the valued Guests.........More</t>
   </si>
   <si>
+    <t>BpARJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r472513203-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>My wife, sister, niece &amp; myself took a late trip from Arizona to Pomona, CA for Disneyland the next day. I made a reservation through Booking.com for this Motel and when I spoke to the front desk lady (Jennifer) the reservation hadn't shown through their system. Jennifer told me it was ok as she could see from the booking number we had that we did have a reservation. She gave us a room for the night and gave us a rate that was $10 cheaper than the booking.com rate! Impressive! The room was clean, spacious and bright...we were impressed, especially for it being a Motel 6! Would definitely stay here again if we are in this area, and Jennifer was awesome!More</t>
   </si>
   <si>
+    <t>baby g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r461045025-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>shelby10_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r424556284-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>ronjo44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r381646328-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>Was a quick trip, a family member passed away and we came for the funeral. Checked in (the attendant was rude) and off to the wake (noticed a cigarette odor in the room). After the viewing we needed to iron some clothes, no iron or ironing board in room. Asked the front desk if there was iron he said yes but no ironing board an ask for my credit card to hold for it...really what do we iron on the attendant said the bathroom sink with a straight face!! After the funeral are keys didn't work, apparently they thought we checked out, luckily our room wasn't given away.We will Never stay here Nor another Motel 6 ever again, this place SUCKED!!!!!!!Cheap hotels should be ashamed of itself for having this hotel on it's sight!More</t>
   </si>
   <si>
+    <t>disciple phil m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r358321994-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>The outward clean appearance of the motel caused me to have a change of heart in deciding to try this out. Nobody hanging out over balconies or people smoking out, the last minute check in was quick and smooth with no hassles, joshephine did great with info as well. The room smelled good and no carpet(yes!) upgraded furnishings impressed me, all linoleum floor which was very clean. Overall the room was very clean, sheets and blankets very clean whiched helped me and my wife sleep with a good consience. The price matches a three star motel. The place felt secure and safe for a family on a budget. This motel 6 is good, other motel 6 are o.k. , i would come back if i have to budget. expect one towel and one super cheap small bar of soap, thats it!More</t>
   </si>
   <si>
+    <t>JoshTravels88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r320753286-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>ohhnurse</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r293911977-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
@@ -325,6 +349,9 @@
 Overall, I'd stay there again.  I won't be bringing sheets.  I think this Motel 6 was just right for what we needed.  There is a Starbucks a little...We looked for a dog-friendly hotel in the Diamond Bar area but couldn't find one close that wasn't over $150 a night plus a pet fee of up to $75.  We decided that we would only be using the room for sleep since we would be visiting my parent's home during the day.  We were glad we did.  My brother and his family and my niece and her husband stayed at my parents and we stayed at the Motel 6.  We had ice cold air conditioning and a comfortable bed and we were able to bring our dog with us. Parking was easy. The room was just right for what we needed.My only complaint is that I brought my own sheets and left a GIANT NOTE on the bed that said:  "PLEASE DO NOT CHANGE THESE SHEETS.  I BROUGHT THEM FROM HOME."  Well, it was the last time I saw them.  I contacted the front desk who said they'd pass it on to housekeeping.  I heard nothing.  When I checked out, the front desk lady said she didn't know anything about it.  She took my name and phone number, but I know I won't hear back from anyone.  Unless they couldn't read, it was impossible not to see the big note.Overall, I'd stay there again.  I won't be bringing sheets.  I think this Motel 6 was just right for what we needed.  There is a Starbucks a little over 2 miles away.  There is an In-n-Out Burger or Wing Street restaurant down the road.  In fact, there are several restaurants close-by.  I liked that we were right next to the freeway which took me only 9 minutes to get to my parent's home.More</t>
   </si>
   <si>
+    <t>Marjorie999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r288310767-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -352,6 +379,9 @@
     <t>Only one dirty looking hand towel and wash cloth was provided.  When asked for towels so we could shower, housekeeping said there were none available.  Will never stay there again.  We had to go out without showers.More</t>
   </si>
   <si>
+    <t>racegirlly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r240628399-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -376,6 +406,9 @@
     <t>What a disappointment.  Very depressed area.  Hotel is permanent home for many people with dogs and a lot of time on their hands.  On arrival we had no shower curtain and obvious smoking in non smoking room.  Cigarette burns in bedspread and filthy floor which turned my socks black.  Nice people but stay far away.  More</t>
   </si>
   <si>
+    <t>Angelo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r211731390-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -397,6 +430,9 @@
     <t>We arrived at 1AM and even though there is a sign that says C/I thru a window outside the lobby at night, the front desk agent still allowed us in. She was not rude nor is she friendly, however she cracked a smile when I stated that we are all starving but also can't wait to hit the bed. The room had 2 queen beds and was decent looking and room temperature was chilly but I like it so no complains there. There is a pool that my 7 years old daughter hanged-out Saturday afternoon, however, I noticed that our room was not as cold, I would even say almost warm that afternoon. We called front desk about it and maintenance worked on it 10 minutes after we called and concern resolved right there and then. Only complain that we have is the hotel policy of No Smoking which they posted at the bottom of an overturned ashtray in each room. It is like saying, do not smoke but just in case you do...here is the ashtray! Our neighbors next door not only smoked in room, but also kept us up the whole night from constant knocking on door. I guess, the front desk did not know that the room had 7 guests and only issued limited amount of keycard.More</t>
   </si>
   <si>
+    <t>Ricky&amp;Vicky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r196125105-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -418,6 +454,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>wr2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r129706311-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -433,6 +472,9 @@
     <t>For a motel 6 i was surprised about the conditions of the room and the good experience. Linens were crispy and smelled fine, restroom was spotless and ac was quiet. Tv was a bit roughed up but i guess its a small deal. I was way in the back corner where it was quiet all night. Would def come here again for the good service i got at night.</t>
   </si>
   <si>
+    <t>araes2102</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r122412365-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -451,6 +493,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>mrschicken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r13487881-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
   </si>
   <si>
@@ -467,6 +512,9 @@
   </si>
   <si>
     <t>February 2008</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32911-d79344-r1153973-Motel_6_Los_Angeles_Pomona-Pomona_California.html</t>
@@ -993,34 +1041,38 @@
       <c r="A2" t="n">
         <v>5918</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1039,50 +1091,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5918</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1102,50 +1158,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5918</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1159,50 +1219,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5918</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1216,50 +1280,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5918</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1277,50 +1345,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5918</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1338,50 +1410,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5918</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1401,50 +1477,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5918</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1464,50 +1544,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5918</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1519,47 +1603,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5918</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1586,56 +1674,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5918</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1659,50 +1751,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5918</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1726,41 +1822,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5918</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1789,50 +1889,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5918</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1856,50 +1960,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5918</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -1923,41 +2031,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5918</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1976,7 +2088,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
